--- a/DocumentationSource/2018Q101/KPImetrics_worksheet.xlsx
+++ b/DocumentationSource/2018Q101/KPImetrics_worksheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mtinius@tibco.com/Documents/Tibco Customers/Windstream/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mtinius@tibco.com/Documents/Windows10_VM/ASAssets/KPImetrics/Releases/KPImetrics_2108Q101 DocumentSource/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{7848048B-E838-8C4C-9F52-A6509490249B}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{795CDB11-D8AE-2046-9694-0C37BC881D12}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="40" yWindow="580" windowWidth="28040" windowHeight="17440" xr2:uid="{1A57CABF-3F0B-A04C-B414-8D3AB3A9808B}"/>
+    <workbookView xWindow="40" yWindow="580" windowWidth="31000" windowHeight="17440" xr2:uid="{1A57CABF-3F0B-A04C-B414-8D3AB3A9808B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,12 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
   <si>
     <t>KPImetrics Datasource</t>
-  </si>
-  <si>
-    <t>Value</t>
   </si>
   <si>
     <t>Host</t>
@@ -219,6 +216,18 @@
   </si>
   <si>
     <t>Note: Location of commonValues:  /shared/ASAssets/KPImetrics/Configuration/commonValues</t>
+  </si>
+  <si>
+    <t>Dev Value</t>
+  </si>
+  <si>
+    <t>Test Value</t>
+  </si>
+  <si>
+    <t>Prod Value</t>
+  </si>
+  <si>
+    <t>DR Value</t>
   </si>
 </sst>
 </file>
@@ -609,159 +618,171 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59D01574-01BB-EC49-B3B5-F86BD9ABD584}">
-  <dimension ref="A1:C52"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D1" sqref="D1:F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="49" customWidth="1"/>
-    <col min="2" max="2" width="55.33203125" customWidth="1"/>
+    <col min="2" max="2" width="29.5" customWidth="1"/>
     <col min="3" max="3" width="58.6640625" customWidth="1"/>
+    <col min="4" max="4" width="20.1640625" customWidth="1"/>
+    <col min="5" max="5" width="17" customWidth="1"/>
+    <col min="6" max="6" width="19.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
       <c r="B2" s="2"/>
       <c r="C2" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:3" ht="32" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C4" s="5" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="C10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C11" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C12" t="s">
+      <c r="C13" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" t="s">
+    <row r="14" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="5" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="32" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C15" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" t="s">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="3" t="s">
         <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
@@ -769,40 +790,40 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C24" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -810,107 +831,107 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" t="s">
         <v>59</v>
-      </c>
-      <c r="C36" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C45" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C47" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="48" spans="1:3" ht="70" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
@@ -921,15 +942,15 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="32" x14ac:dyDescent="0.2">
       <c r="A52" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
   </sheetData>
